--- a/data/Year corrections.xlsx
+++ b/data/Year corrections.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24000" windowHeight="12440"/>
+    <workbookView xWindow="40" yWindow="2980" windowWidth="22980" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="509">
   <si>
     <t>No match on name</t>
   </si>
@@ -1548,13 +1551,19 @@
   </si>
   <si>
     <t>Catalog No</t>
+  </si>
+  <si>
+    <t>Comics.org Issue</t>
+  </si>
+  <si>
+    <t>1/2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1567,6 +1576,22 @@
       <color rgb="FF222222"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1576,7 +1601,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1584,11 +1609,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1603,8 +1645,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1883,10 +1930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:N205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="C181" workbookViewId="0">
+      <selection activeCell="K199" sqref="K199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1898,10 +1945,10 @@
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="10" max="11" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>506</v>
       </c>
@@ -1929,11 +1976,14 @@
       <c r="J1" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>496</v>
       </c>
@@ -1961,11 +2011,14 @@
       <c r="J2" s="1">
         <v>43815</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="6">
+        <v>726967</v>
+      </c>
+      <c r="L2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>492</v>
       </c>
@@ -1991,11 +2044,14 @@
       <c r="J3" s="1">
         <v>42138</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="6">
+        <v>710324</v>
+      </c>
+      <c r="L3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>489</v>
       </c>
@@ -2023,8 +2079,9 @@
       <c r="J4" s="1">
         <v>27752</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>488</v>
       </c>
@@ -2052,8 +2109,9 @@
       <c r="J5" s="1">
         <v>27752</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>487</v>
       </c>
@@ -2081,8 +2139,9 @@
       <c r="J6" s="1">
         <v>27752</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>486</v>
       </c>
@@ -2110,8 +2169,9 @@
       <c r="J7" s="1">
         <v>27752</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>4442</v>
       </c>
@@ -2137,11 +2197,12 @@
       <c r="J8" s="1">
         <v>7611</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>481</v>
       </c>
@@ -2169,11 +2230,12 @@
       <c r="J9" s="1">
         <v>10548</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>477</v>
       </c>
@@ -2194,14 +2256,13 @@
       <c r="H10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="1">
-        <v>108522</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="6"/>
+      <c r="L10" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>473</v>
       </c>
@@ -2214,8 +2275,8 @@
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1">
-        <v>0.5</v>
+      <c r="E11" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2229,8 +2290,11 @@
       <c r="J11" s="1">
         <v>46811</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K11" s="1">
+        <v>744791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>3622</v>
       </c>
@@ -2258,11 +2322,12 @@
       <c r="J12" s="1">
         <v>66345</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1"/>
+      <c r="L12" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>3623</v>
       </c>
@@ -2290,11 +2355,12 @@
       <c r="J13" s="1">
         <v>66345</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1"/>
+      <c r="L13" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>3625</v>
       </c>
@@ -2320,11 +2386,12 @@
       <c r="J14" s="1">
         <v>66345</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1"/>
+      <c r="L14" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>468</v>
       </c>
@@ -2352,11 +2419,12 @@
       <c r="J15" s="1">
         <v>43772</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1"/>
+      <c r="L15" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>464</v>
       </c>
@@ -2384,8 +2452,9 @@
       <c r="J16" s="1">
         <v>1012</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>462</v>
       </c>
@@ -2413,8 +2482,9 @@
       <c r="J17" s="1">
         <v>27705</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>461</v>
       </c>
@@ -2440,11 +2510,12 @@
       <c r="J18" s="1">
         <v>27705</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="1"/>
+      <c r="L18" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>458</v>
       </c>
@@ -2472,11 +2543,12 @@
       <c r="J19" s="1">
         <v>18544</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="1"/>
+      <c r="L19" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>457</v>
       </c>
@@ -2504,11 +2576,12 @@
       <c r="J20" s="1">
         <v>18544</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="1"/>
+      <c r="L20" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>453</v>
       </c>
@@ -2532,11 +2605,12 @@
         <v>0</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" t="s">
+      <c r="K21" s="1"/>
+      <c r="L21" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>450</v>
       </c>
@@ -2564,11 +2638,12 @@
       <c r="J22" s="1">
         <v>46855</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1"/>
+      <c r="L22" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>10182</v>
       </c>
@@ -2596,11 +2671,12 @@
       <c r="J23" s="1">
         <v>28575</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="1"/>
+      <c r="L23" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>10183</v>
       </c>
@@ -2628,11 +2704,12 @@
       <c r="J24" s="1">
         <v>28575</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="1"/>
+      <c r="L24" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>444</v>
       </c>
@@ -2660,11 +2737,12 @@
       <c r="J25" s="1">
         <v>24482</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="1"/>
+      <c r="L25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>442</v>
       </c>
@@ -2692,11 +2770,12 @@
       <c r="J26" s="1">
         <v>24482</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="1"/>
+      <c r="L26" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>438</v>
       </c>
@@ -2724,8 +2803,9 @@
       <c r="J27" s="1">
         <v>11276</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>436</v>
       </c>
@@ -2753,11 +2833,12 @@
       <c r="J28" s="1">
         <v>3216</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="1"/>
+      <c r="L28" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>432</v>
       </c>
@@ -2785,11 +2866,12 @@
       <c r="J29" s="1">
         <v>4822</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="1"/>
+      <c r="L29" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>428</v>
       </c>
@@ -2811,11 +2893,12 @@
         <v>0</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" t="s">
+      <c r="K30" s="1"/>
+      <c r="L30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>426</v>
       </c>
@@ -2837,11 +2920,12 @@
         <v>0</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" t="s">
+      <c r="K31" s="1"/>
+      <c r="L31" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>423</v>
       </c>
@@ -2869,8 +2953,11 @@
       <c r="J32" s="1">
         <v>28863</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>407723</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>422</v>
       </c>
@@ -2896,8 +2983,11 @@
       <c r="J33" s="1">
         <v>28863</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>407723</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>420</v>
       </c>
@@ -2925,11 +3015,12 @@
       <c r="J34" s="1">
         <v>23721</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="1"/>
+      <c r="L34" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>416</v>
       </c>
@@ -2957,8 +3048,9 @@
       <c r="J35" s="1">
         <v>56589</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>414</v>
       </c>
@@ -2980,11 +3072,12 @@
         <v>0</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="K36" t="s">
+      <c r="K36" s="1"/>
+      <c r="L36" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>411</v>
       </c>
@@ -3008,11 +3101,12 @@
         <v>0</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="K37" t="s">
+      <c r="K37" s="1"/>
+      <c r="L37" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>410</v>
       </c>
@@ -3036,11 +3130,12 @@
         <v>0</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="K38" t="s">
+      <c r="K38" s="1"/>
+      <c r="L38" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>408</v>
       </c>
@@ -3068,11 +3163,12 @@
       <c r="J39" s="1">
         <v>13932</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="1"/>
+      <c r="L39" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>404</v>
       </c>
@@ -3100,8 +3196,9 @@
       <c r="J40" s="1">
         <v>41896</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>402</v>
       </c>
@@ -3129,8 +3226,11 @@
       <c r="J41" s="1">
         <v>4559</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>51046</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>400</v>
       </c>
@@ -3158,8 +3258,9 @@
       <c r="J42" s="1">
         <v>52566</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>398</v>
       </c>
@@ -3187,8 +3288,9 @@
       <c r="J43" s="1">
         <v>43813</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>396</v>
       </c>
@@ -3201,8 +3303,8 @@
       <c r="D44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="1">
-        <v>0.5</v>
+      <c r="E44" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -3216,11 +3318,14 @@
       <c r="J44" s="1">
         <v>46307</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44">
+        <v>742335</v>
+      </c>
+      <c r="L44" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>392</v>
       </c>
@@ -3233,8 +3338,8 @@
       <c r="D45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="1">
-        <v>0.5</v>
+      <c r="E45" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3248,8 +3353,11 @@
       <c r="J45" s="1">
         <v>46788</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K45" s="1">
+        <v>744752</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>391</v>
       </c>
@@ -3262,8 +3370,8 @@
       <c r="D46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="1">
-        <v>0.5</v>
+      <c r="E46" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3277,8 +3385,11 @@
       <c r="J46" s="1">
         <v>46788</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K46" s="1">
+        <v>744752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>389</v>
       </c>
@@ -3306,11 +3417,12 @@
       <c r="J47" s="1">
         <v>21614</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="1"/>
+      <c r="L47" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>385</v>
       </c>
@@ -3338,8 +3450,9 @@
       <c r="J48" s="1">
         <v>4906</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>383</v>
       </c>
@@ -3367,11 +3480,12 @@
       <c r="J49" s="1">
         <v>4533</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="1"/>
+      <c r="L49" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>379</v>
       </c>
@@ -3399,8 +3513,9 @@
       <c r="J50" s="1">
         <v>26907</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>377</v>
       </c>
@@ -3413,8 +3528,8 @@
       <c r="D51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="1">
-        <v>0.5</v>
+      <c r="E51" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3428,11 +3543,14 @@
       <c r="J51" s="1">
         <v>18763</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="1">
+        <v>300759</v>
+      </c>
+      <c r="L51" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>373</v>
       </c>
@@ -3460,11 +3578,12 @@
       <c r="J52" s="1">
         <v>17394</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="1"/>
+      <c r="L52" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>369</v>
       </c>
@@ -3486,14 +3605,15 @@
         <v>0</v>
       </c>
       <c r="J53" s="1"/>
-      <c r="K53" t="s">
+      <c r="K53" s="1"/>
+      <c r="L53" t="s">
         <v>260</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>366</v>
       </c>
@@ -3506,8 +3626,8 @@
       <c r="D54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="1">
-        <v>0.5</v>
+      <c r="E54" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3521,8 +3641,11 @@
       <c r="J54" s="1">
         <v>34793</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="K54" s="1">
+        <v>581067</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>364</v>
       </c>
@@ -3550,8 +3673,9 @@
       <c r="J55" s="1">
         <v>4296</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>362</v>
       </c>
@@ -3564,8 +3688,8 @@
       <c r="D56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="1">
-        <v>0.5</v>
+      <c r="E56" s="8" t="s">
+        <v>508</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3579,8 +3703,11 @@
       <c r="J56" s="1">
         <v>46341</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="K56" s="1">
+        <v>742875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>360</v>
       </c>
@@ -3608,8 +3735,9 @@
       <c r="J57" s="1">
         <v>19215</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>358</v>
       </c>
@@ -3637,8 +3765,9 @@
       <c r="J58" s="1">
         <v>2490</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>357</v>
       </c>
@@ -3666,8 +3795,9 @@
       <c r="J59" s="1">
         <v>2490</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>355</v>
       </c>
@@ -3693,11 +3823,12 @@
       <c r="J60" s="1">
         <v>19801</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="1"/>
+      <c r="L60" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>352</v>
       </c>
@@ -3710,8 +3841,8 @@
       <c r="D61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="1">
-        <v>0.5</v>
+      <c r="E61" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3725,8 +3856,11 @@
       <c r="J61" s="1">
         <v>26234</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="K61" s="1">
+        <v>371474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>350</v>
       </c>
@@ -3754,8 +3888,9 @@
       <c r="J62" s="1">
         <v>1342</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>348</v>
       </c>
@@ -3768,8 +3903,8 @@
       <c r="D63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="1">
-        <v>0.5</v>
+      <c r="E63" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -3783,11 +3918,14 @@
       <c r="J63" s="1">
         <v>25534</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="1">
+        <v>364564</v>
+      </c>
+      <c r="L63" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>347</v>
       </c>
@@ -3800,8 +3938,8 @@
       <c r="D64" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="1">
-        <v>0.5</v>
+      <c r="E64" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -3815,11 +3953,14 @@
       <c r="J64" s="1">
         <v>25534</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="1">
+        <v>364564</v>
+      </c>
+      <c r="L64" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>343</v>
       </c>
@@ -3847,11 +3988,12 @@
       <c r="J65" s="1">
         <v>20181</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="1"/>
+      <c r="L65" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>339</v>
       </c>
@@ -3879,8 +4021,9 @@
       <c r="J66" s="1">
         <v>4312</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>337</v>
       </c>
@@ -3904,11 +4047,12 @@
         <v>0</v>
       </c>
       <c r="J67" s="1"/>
-      <c r="K67" t="s">
+      <c r="K67" s="1"/>
+      <c r="L67" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>335</v>
       </c>
@@ -3936,8 +4080,9 @@
       <c r="J68" s="1">
         <v>39379</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>334</v>
       </c>
@@ -3965,8 +4110,9 @@
       <c r="J69" s="1">
         <v>39379</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>332</v>
       </c>
@@ -3994,8 +4140,9 @@
       <c r="J70" s="1">
         <v>47493</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>330</v>
       </c>
@@ -4019,11 +4166,12 @@
         <v>0</v>
       </c>
       <c r="J71" s="1"/>
-      <c r="K71" t="s">
+      <c r="K71" s="1"/>
+      <c r="L71" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>328</v>
       </c>
@@ -4051,11 +4199,12 @@
       <c r="J72" s="1">
         <v>19662</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" s="1"/>
+      <c r="L72" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>324</v>
       </c>
@@ -4068,8 +4217,8 @@
       <c r="D73" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="1">
-        <v>0.5</v>
+      <c r="E73" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -4081,10 +4230,13 @@
         <v>0</v>
       </c>
       <c r="J73" s="1">
+        <v>16993</v>
+      </c>
+      <c r="K73" s="1">
         <v>276489</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>322</v>
       </c>
@@ -4112,8 +4264,9 @@
       <c r="J74" s="1">
         <v>5596</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>321</v>
       </c>
@@ -4141,11 +4294,12 @@
       <c r="J75" s="1">
         <v>13126</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K75" s="1"/>
+      <c r="L75" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>318</v>
       </c>
@@ -4173,8 +4327,9 @@
       <c r="J76" s="1">
         <v>4082</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>317</v>
       </c>
@@ -4202,11 +4357,12 @@
       <c r="J77" s="1">
         <v>5086</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" s="1"/>
+      <c r="L77" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>314</v>
       </c>
@@ -4234,11 +4390,12 @@
       <c r="J78" s="1">
         <v>23982</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="1"/>
+      <c r="L78" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>311</v>
       </c>
@@ -4266,11 +4423,12 @@
       <c r="J79" s="1">
         <v>38503</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" s="1"/>
+      <c r="L79" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>307</v>
       </c>
@@ -4298,11 +4456,12 @@
       <c r="J80" s="1">
         <v>13585</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" s="1"/>
+      <c r="L80" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>303</v>
       </c>
@@ -4326,11 +4485,12 @@
         <v>0</v>
       </c>
       <c r="J81" s="1"/>
-      <c r="K81" t="s">
+      <c r="K81" s="1"/>
+      <c r="L81" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>300</v>
       </c>
@@ -4358,11 +4518,12 @@
       <c r="J82" s="1">
         <v>11326</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="1"/>
+      <c r="L82" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>296</v>
       </c>
@@ -4384,11 +4545,12 @@
         <v>0</v>
       </c>
       <c r="J83" s="1"/>
-      <c r="K83" t="s">
+      <c r="K83" s="1"/>
+      <c r="L83" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>295</v>
       </c>
@@ -4410,11 +4572,12 @@
         <v>0</v>
       </c>
       <c r="J84" s="1"/>
-      <c r="K84" t="s">
+      <c r="K84" s="1"/>
+      <c r="L84" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>292</v>
       </c>
@@ -4442,8 +4605,11 @@
       <c r="J85" s="1">
         <v>25531</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K85" s="1">
+        <v>364561</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>291</v>
       </c>
@@ -4471,8 +4637,11 @@
       <c r="J86" s="1">
         <v>25531</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K86" s="1">
+        <v>364561</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>289</v>
       </c>
@@ -4498,10 +4667,13 @@
         <v>0</v>
       </c>
       <c r="J87" s="1">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>12809</v>
+      </c>
+      <c r="K87" s="1">
+        <v>307728</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>287</v>
       </c>
@@ -4529,8 +4701,11 @@
       <c r="J88" s="1">
         <v>14491</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K88" s="1">
+        <v>250889</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>285</v>
       </c>
@@ -4558,11 +4733,14 @@
       <c r="J89" s="1">
         <v>45718</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" s="1">
+        <v>817613</v>
+      </c>
+      <c r="L89" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>281</v>
       </c>
@@ -4588,11 +4766,14 @@
       <c r="J90" s="1">
         <v>67988</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K90" s="1">
+        <v>986423</v>
+      </c>
+      <c r="L90" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>278</v>
       </c>
@@ -4620,11 +4801,12 @@
       <c r="J91" s="1">
         <v>38446</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K91" s="1"/>
+      <c r="L91" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>274</v>
       </c>
@@ -4652,8 +4834,9 @@
       <c r="J92" s="1">
         <v>4870</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>272</v>
       </c>
@@ -4681,11 +4864,14 @@
       <c r="J93" s="1">
         <v>7612</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K93">
+        <v>393973</v>
+      </c>
+      <c r="L93" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>268</v>
       </c>
@@ -4709,11 +4895,12 @@
         <v>0</v>
       </c>
       <c r="J94" s="1"/>
-      <c r="K94" t="s">
+      <c r="K94" s="1"/>
+      <c r="L94" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>267</v>
       </c>
@@ -4737,11 +4924,12 @@
         <v>0</v>
       </c>
       <c r="J95" s="1"/>
-      <c r="K95" t="s">
+      <c r="K95" s="1"/>
+      <c r="L95" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>266</v>
       </c>
@@ -4765,11 +4953,12 @@
         <v>0</v>
       </c>
       <c r="J96" s="1"/>
-      <c r="K96" t="s">
+      <c r="K96" s="1"/>
+      <c r="L96" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>265</v>
       </c>
@@ -4793,11 +4982,12 @@
         <v>0</v>
       </c>
       <c r="J97" s="1"/>
-      <c r="K97" t="s">
+      <c r="K97" s="1"/>
+      <c r="L97" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>264</v>
       </c>
@@ -4821,11 +5011,12 @@
         <v>0</v>
       </c>
       <c r="J98" s="1"/>
-      <c r="K98" t="s">
+      <c r="K98" s="1"/>
+      <c r="L98" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>262</v>
       </c>
@@ -4849,11 +5040,12 @@
         <v>0</v>
       </c>
       <c r="J99" s="1"/>
-      <c r="K99" t="s">
+      <c r="K99" s="1"/>
+      <c r="L99" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>259</v>
       </c>
@@ -4881,8 +5073,11 @@
       <c r="J100" s="1">
         <v>48732</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K100" s="1">
+        <v>757090</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>258</v>
       </c>
@@ -4910,8 +5105,11 @@
       <c r="J101" s="1">
         <v>48732</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K101" s="1">
+        <v>757090</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>256</v>
       </c>
@@ -4939,8 +5137,9 @@
       <c r="J102" s="1">
         <v>26227</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>254</v>
       </c>
@@ -4968,8 +5167,9 @@
       <c r="J103" s="1">
         <v>460</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>252</v>
       </c>
@@ -4997,8 +5197,9 @@
       <c r="J104" s="1">
         <v>13339</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>250</v>
       </c>
@@ -5026,11 +5227,12 @@
       <c r="J105" s="1">
         <v>43792</v>
       </c>
-      <c r="K105" t="s">
+      <c r="K105" s="1"/>
+      <c r="L105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>246</v>
       </c>
@@ -5058,11 +5260,14 @@
       <c r="J106" s="1">
         <v>5703</v>
       </c>
-      <c r="K106" t="s">
+      <c r="K106" s="1">
+        <v>58196</v>
+      </c>
+      <c r="L106" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>242</v>
       </c>
@@ -5084,11 +5289,12 @@
         <v>0</v>
       </c>
       <c r="J107" s="1"/>
-      <c r="K107" t="s">
+      <c r="K107" s="1"/>
+      <c r="L107" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>240</v>
       </c>
@@ -5116,11 +5322,14 @@
       <c r="J108" s="1">
         <v>19179</v>
       </c>
-      <c r="K108" t="s">
+      <c r="K108" s="1">
+        <v>305283</v>
+      </c>
+      <c r="L108" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>236</v>
       </c>
@@ -5148,8 +5357,9 @@
       <c r="J109" s="1">
         <v>40391</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>235</v>
       </c>
@@ -5177,8 +5387,9 @@
       <c r="J110" s="1">
         <v>55068</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>233</v>
       </c>
@@ -5202,11 +5413,12 @@
         <v>0</v>
       </c>
       <c r="J111" s="1"/>
-      <c r="K111" t="s">
+      <c r="K111" s="1"/>
+      <c r="L111" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>231</v>
       </c>
@@ -5232,11 +5444,14 @@
       <c r="J112" s="1">
         <v>17147</v>
       </c>
-      <c r="K112" t="s">
+      <c r="K112" s="1">
+        <v>277312</v>
+      </c>
+      <c r="L112" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>227</v>
       </c>
@@ -5264,11 +5479,14 @@
       <c r="J113" s="1">
         <v>63180</v>
       </c>
-      <c r="K113" t="s">
+      <c r="K113" s="1">
+        <v>912566</v>
+      </c>
+      <c r="L113" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>223</v>
       </c>
@@ -5296,11 +5514,14 @@
       <c r="J114" s="1">
         <v>46792</v>
       </c>
-      <c r="K114" t="s">
+      <c r="K114" s="1">
+        <v>744754</v>
+      </c>
+      <c r="L114" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>219</v>
       </c>
@@ -5326,8 +5547,11 @@
       <c r="J115" s="1">
         <v>10093</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K115" s="1">
+        <v>94177</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>217</v>
       </c>
@@ -5355,8 +5579,9 @@
       <c r="J116" s="1">
         <v>3426</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>215</v>
       </c>
@@ -5378,11 +5603,12 @@
         <v>0</v>
       </c>
       <c r="J117" s="1"/>
-      <c r="K117" t="s">
+      <c r="K117" s="1"/>
+      <c r="L117" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>212</v>
       </c>
@@ -5410,8 +5636,9 @@
       <c r="J118" s="1">
         <v>13126</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>11164</v>
       </c>
@@ -5433,11 +5660,12 @@
         <v>0</v>
       </c>
       <c r="J119" s="1"/>
-      <c r="K119" t="s">
+      <c r="K119" s="1"/>
+      <c r="L119" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>209</v>
       </c>
@@ -5465,8 +5693,9 @@
       <c r="J120" s="1">
         <v>17173</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>208</v>
       </c>
@@ -5494,8 +5723,9 @@
       <c r="J121" s="1">
         <v>17173</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>206</v>
       </c>
@@ -5517,11 +5747,12 @@
         <v>0</v>
       </c>
       <c r="J122" s="1"/>
-      <c r="K122" t="s">
+      <c r="K122" s="1"/>
+      <c r="L122" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>204</v>
       </c>
@@ -5543,11 +5774,12 @@
         <v>0</v>
       </c>
       <c r="J123" s="1"/>
-      <c r="K123" t="s">
+      <c r="K123" s="1"/>
+      <c r="L123" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>202</v>
       </c>
@@ -5569,11 +5801,12 @@
         <v>0</v>
       </c>
       <c r="J124" s="1"/>
-      <c r="K124" t="s">
+      <c r="K124" s="1"/>
+      <c r="L124" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>200</v>
       </c>
@@ -5595,11 +5828,12 @@
         <v>0</v>
       </c>
       <c r="J125" s="1"/>
-      <c r="K125" t="s">
+      <c r="K125" s="1"/>
+      <c r="L125" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>198</v>
       </c>
@@ -5621,11 +5855,12 @@
         <v>0</v>
       </c>
       <c r="J126" s="1"/>
-      <c r="K126" t="s">
+      <c r="K126" s="1"/>
+      <c r="L126" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>195</v>
       </c>
@@ -5651,11 +5886,12 @@
       <c r="J127" s="1">
         <v>59315</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K127" s="1"/>
+      <c r="L127" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>194</v>
       </c>
@@ -5681,11 +5917,12 @@
       <c r="J128" s="1">
         <v>59315</v>
       </c>
-      <c r="K128" t="s">
+      <c r="K128" s="1"/>
+      <c r="L128" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>193</v>
       </c>
@@ -5711,11 +5948,12 @@
       <c r="J129" s="1">
         <v>59315</v>
       </c>
-      <c r="K129" t="s">
+      <c r="K129" s="1"/>
+      <c r="L129" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>190</v>
       </c>
@@ -5743,8 +5981,9 @@
       <c r="J130" s="1">
         <v>26916</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>188</v>
       </c>
@@ -5768,11 +6007,12 @@
         <v>0</v>
       </c>
       <c r="J131" s="1"/>
-      <c r="K131" t="s">
+      <c r="K131" s="1"/>
+      <c r="L131" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>187</v>
       </c>
@@ -5796,11 +6036,12 @@
         <v>0</v>
       </c>
       <c r="J132" s="1"/>
-      <c r="K132" t="s">
+      <c r="K132" s="1"/>
+      <c r="L132" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>184</v>
       </c>
@@ -5828,8 +6069,9 @@
       <c r="J133" s="1">
         <v>14456</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K133" s="1"/>
+    </row>
+    <row r="134" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>2309</v>
       </c>
@@ -5857,8 +6099,9 @@
       <c r="J134" s="1">
         <v>4221</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K134" s="1"/>
+    </row>
+    <row r="135" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>181</v>
       </c>
@@ -5886,11 +6129,12 @@
       <c r="J135" s="1">
         <v>4600</v>
       </c>
-      <c r="K135" t="s">
+      <c r="K135" s="1"/>
+      <c r="L135" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>177</v>
       </c>
@@ -5918,8 +6162,9 @@
       <c r="J136" s="1">
         <v>16201</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K136" s="1"/>
+    </row>
+    <row r="137" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>175</v>
       </c>
@@ -5945,11 +6190,12 @@
       <c r="J137" s="1">
         <v>48086</v>
       </c>
-      <c r="K137" t="s">
+      <c r="K137" s="1"/>
+      <c r="L137" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>5759</v>
       </c>
@@ -5971,11 +6217,12 @@
         <v>0</v>
       </c>
       <c r="J138" s="1"/>
-      <c r="K138" t="s">
+      <c r="K138" s="1"/>
+      <c r="L138" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>170</v>
       </c>
@@ -5997,11 +6244,12 @@
         <v>0</v>
       </c>
       <c r="J139" s="1"/>
-      <c r="K139" t="s">
+      <c r="K139" s="1"/>
+      <c r="L139" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>168</v>
       </c>
@@ -6025,11 +6273,12 @@
         <v>0</v>
       </c>
       <c r="J140" s="1"/>
-      <c r="K140" t="s">
+      <c r="K140" s="1"/>
+      <c r="L140" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>167</v>
       </c>
@@ -6053,11 +6302,12 @@
         <v>0</v>
       </c>
       <c r="J141" s="1"/>
-      <c r="K141" t="s">
+      <c r="K141" s="1"/>
+      <c r="L141" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>166</v>
       </c>
@@ -6081,11 +6331,12 @@
         <v>0</v>
       </c>
       <c r="J142" s="1"/>
-      <c r="K142" t="s">
+      <c r="K142" s="1"/>
+      <c r="L142" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>164</v>
       </c>
@@ -6113,11 +6364,12 @@
       <c r="J143" s="1">
         <v>16194</v>
       </c>
-      <c r="K143" t="s">
+      <c r="K143" s="1"/>
+      <c r="L143" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>161</v>
       </c>
@@ -6139,11 +6391,12 @@
         <v>0</v>
       </c>
       <c r="J144" s="1"/>
-      <c r="K144" t="s">
+      <c r="K144" s="1"/>
+      <c r="L144" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>159</v>
       </c>
@@ -6171,8 +6424,9 @@
       <c r="J145" s="1">
         <v>19842</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K145" s="1"/>
+    </row>
+    <row r="146" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>157</v>
       </c>
@@ -6200,8 +6454,9 @@
       <c r="J146" s="1">
         <v>45172</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>155</v>
       </c>
@@ -6229,8 +6484,9 @@
       <c r="J147" s="1">
         <v>46842</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K147" s="1"/>
+    </row>
+    <row r="148" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>153</v>
       </c>
@@ -6256,8 +6512,11 @@
       <c r="J148" s="1">
         <v>7730</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K148" s="1">
+        <v>68844</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>151</v>
       </c>
@@ -6279,11 +6538,12 @@
         <v>0</v>
       </c>
       <c r="J149" s="1"/>
-      <c r="K149" t="s">
+      <c r="K149" s="1"/>
+      <c r="L149" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>11399</v>
       </c>
@@ -6311,11 +6571,12 @@
       <c r="J150" s="1">
         <v>14104</v>
       </c>
-      <c r="K150" t="s">
+      <c r="K150" s="1"/>
+      <c r="L150" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>145</v>
       </c>
@@ -6343,11 +6604,14 @@
       <c r="J151" s="1">
         <v>5459</v>
       </c>
-      <c r="K151" t="s">
+      <c r="K151" s="1">
+        <v>58175</v>
+      </c>
+      <c r="L151" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>141</v>
       </c>
@@ -6375,8 +6639,9 @@
       <c r="J152" s="1">
         <v>40314</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K152" s="1"/>
+    </row>
+    <row r="153" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>139</v>
       </c>
@@ -6404,8 +6669,11 @@
       <c r="J153" s="1">
         <v>29271</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K153" s="1">
+        <v>411570</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>137</v>
       </c>
@@ -6433,11 +6701,14 @@
       <c r="J154" s="1">
         <v>20095</v>
       </c>
-      <c r="K154" t="s">
+      <c r="K154" s="1">
+        <v>315750</v>
+      </c>
+      <c r="L154" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>136</v>
       </c>
@@ -6465,11 +6736,14 @@
       <c r="J155" s="1">
         <v>20095</v>
       </c>
-      <c r="K155" t="s">
+      <c r="K155" s="1">
+        <v>315750</v>
+      </c>
+      <c r="L155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>132</v>
       </c>
@@ -6497,11 +6771,12 @@
       <c r="J156" s="1">
         <v>7178</v>
       </c>
-      <c r="K156" t="s">
+      <c r="K156" s="1"/>
+      <c r="L156" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>128</v>
       </c>
@@ -6529,8 +6804,11 @@
       <c r="J157" s="1">
         <v>76399</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K157" s="1">
+        <v>1140498</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>126</v>
       </c>
@@ -6558,11 +6836,14 @@
       <c r="J158" s="1">
         <v>76182</v>
       </c>
-      <c r="K158" t="s">
+      <c r="K158" s="1">
+        <v>1138561</v>
+      </c>
+      <c r="L158" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>125</v>
       </c>
@@ -6590,11 +6871,14 @@
       <c r="J159" s="1">
         <v>76182</v>
       </c>
-      <c r="K159" t="s">
+      <c r="K159" s="1">
+        <v>1138561</v>
+      </c>
+      <c r="L159" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>121</v>
       </c>
@@ -6620,11 +6904,14 @@
       <c r="J160" s="1">
         <v>42321</v>
       </c>
-      <c r="K160" t="s">
+      <c r="K160" s="1">
+        <v>713015</v>
+      </c>
+      <c r="L160" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>117</v>
       </c>
@@ -6652,11 +6939,12 @@
       <c r="J161" s="1">
         <v>36609</v>
       </c>
-      <c r="K161" t="s">
+      <c r="K161" s="1"/>
+      <c r="L161" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>113</v>
       </c>
@@ -6682,11 +6970,12 @@
       <c r="J162" s="1">
         <v>32585</v>
       </c>
-      <c r="K162" t="s">
+      <c r="K162" s="1"/>
+      <c r="L162" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>1780</v>
       </c>
@@ -6708,11 +6997,12 @@
         <v>0</v>
       </c>
       <c r="J163" s="1"/>
-      <c r="K163" t="s">
+      <c r="K163" s="1"/>
+      <c r="L163" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>109</v>
       </c>
@@ -6740,8 +7030,9 @@
       <c r="J164" s="1">
         <v>43793</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K164" s="1"/>
+    </row>
+    <row r="165" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>107</v>
       </c>
@@ -6769,11 +7060,14 @@
       <c r="J165" s="1">
         <v>23122</v>
       </c>
-      <c r="K165" t="s">
+      <c r="K165" s="1">
+        <v>350637</v>
+      </c>
+      <c r="L165" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>104</v>
       </c>
@@ -6801,11 +7095,12 @@
       <c r="J166" s="1">
         <v>75251</v>
       </c>
-      <c r="K166" t="s">
+      <c r="K166" s="1"/>
+      <c r="L166" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>103</v>
       </c>
@@ -6833,11 +7128,12 @@
       <c r="J167" s="1">
         <v>75251</v>
       </c>
-      <c r="K167" t="s">
+      <c r="K167" s="1"/>
+      <c r="L167" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>102</v>
       </c>
@@ -6865,11 +7161,12 @@
       <c r="J168" s="1">
         <v>75251</v>
       </c>
-      <c r="K168" t="s">
+      <c r="K168" s="1"/>
+      <c r="L168" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>99</v>
       </c>
@@ -6893,11 +7190,12 @@
         <v>0</v>
       </c>
       <c r="J169" s="1"/>
-      <c r="K169" t="s">
+      <c r="K169" s="1"/>
+      <c r="L169" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>96</v>
       </c>
@@ -6925,8 +7223,11 @@
       <c r="J170" s="1">
         <v>16983</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K170" s="1">
+        <v>276418</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>95</v>
       </c>
@@ -6954,8 +7255,11 @@
       <c r="J171" s="1">
         <v>16983</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K171" s="1">
+        <v>276418</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>93</v>
       </c>
@@ -6983,11 +7287,12 @@
       <c r="J172" s="1">
         <v>19357</v>
       </c>
-      <c r="K172" t="s">
+      <c r="K172" s="1"/>
+      <c r="L172" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>89</v>
       </c>
@@ -7015,8 +7320,9 @@
       <c r="J173" s="1">
         <v>14650</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K173" s="1"/>
+    </row>
+    <row r="174" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>87</v>
       </c>
@@ -7044,8 +7350,11 @@
       <c r="J174" s="1">
         <v>62785</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K174" s="1">
+        <v>1443961</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>86</v>
       </c>
@@ -7069,11 +7378,12 @@
       <c r="J175" s="1">
         <v>62785</v>
       </c>
-      <c r="K175" t="s">
+      <c r="K175" s="1"/>
+      <c r="L175" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>85</v>
       </c>
@@ -7097,11 +7407,12 @@
       <c r="J176" s="1">
         <v>62785</v>
       </c>
-      <c r="K176" t="s">
+      <c r="K176" s="1"/>
+      <c r="L176" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>82</v>
       </c>
@@ -7129,11 +7440,12 @@
       <c r="J177" s="1">
         <v>11853</v>
       </c>
-      <c r="K177" t="s">
+      <c r="K177" s="1"/>
+      <c r="L177" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>78</v>
       </c>
@@ -7157,11 +7469,12 @@
         <v>0</v>
       </c>
       <c r="J178" s="1"/>
-      <c r="K178" t="s">
+      <c r="K178" s="1"/>
+      <c r="L178" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>75</v>
       </c>
@@ -7189,8 +7502,9 @@
       <c r="J179" s="1">
         <v>24692</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K179" s="1"/>
+    </row>
+    <row r="180" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>73</v>
       </c>
@@ -7218,11 +7532,12 @@
       <c r="J180" s="1">
         <v>4106</v>
       </c>
-      <c r="K180" t="s">
+      <c r="K180" s="1"/>
+      <c r="L180" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>69</v>
       </c>
@@ -7244,11 +7559,12 @@
         <v>0</v>
       </c>
       <c r="J181" s="1"/>
-      <c r="K181" t="s">
+      <c r="K181" s="1"/>
+      <c r="L181" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>67</v>
       </c>
@@ -7270,11 +7586,12 @@
         <v>0</v>
       </c>
       <c r="J182" s="1"/>
-      <c r="K182" t="s">
+      <c r="K182" s="1"/>
+      <c r="L182" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>65</v>
       </c>
@@ -7297,14 +7614,17 @@
       <c r="H183" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J183" s="1">
+      <c r="J183">
+        <v>5793</v>
+      </c>
+      <c r="K183" s="1">
         <v>59755</v>
       </c>
-      <c r="K183" t="s">
+      <c r="L183" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>61</v>
       </c>
@@ -7324,11 +7644,12 @@
         <v>0</v>
       </c>
       <c r="J184" s="1"/>
-      <c r="K184" t="s">
+      <c r="K184" s="1"/>
+      <c r="L184" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>58</v>
       </c>
@@ -7350,11 +7671,12 @@
         <v>0</v>
       </c>
       <c r="J185" s="1"/>
-      <c r="K185" t="s">
+      <c r="K185" s="1"/>
+      <c r="L185" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>56</v>
       </c>
@@ -7382,11 +7704,12 @@
       <c r="J186" s="1">
         <v>56898</v>
       </c>
-      <c r="K186" t="s">
+      <c r="K186" s="1"/>
+      <c r="L186" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>52</v>
       </c>
@@ -7415,8 +7738,9 @@
         <v>19640</v>
       </c>
       <c r="K187" s="1"/>
-    </row>
-    <row r="188" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L187" s="1"/>
+    </row>
+    <row r="188" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>50</v>
       </c>
@@ -7444,8 +7768,9 @@
       <c r="J188" s="1">
         <v>38448</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K188" s="1"/>
+    </row>
+    <row r="189" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>48</v>
       </c>
@@ -7473,11 +7798,12 @@
       <c r="J189" s="1">
         <v>12507</v>
       </c>
-      <c r="K189" t="s">
+      <c r="K189" s="1"/>
+      <c r="L189" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>44</v>
       </c>
@@ -7503,11 +7829,12 @@
       <c r="J190" s="1">
         <v>40424</v>
       </c>
-      <c r="K190" t="s">
+      <c r="K190" s="1"/>
+      <c r="L190" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>41</v>
       </c>
@@ -7529,11 +7856,12 @@
         <v>0</v>
       </c>
       <c r="J191" s="1"/>
-      <c r="K191" t="s">
+      <c r="K191" s="1"/>
+      <c r="L191" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>39</v>
       </c>
@@ -7561,11 +7889,14 @@
       <c r="J192" s="1">
         <v>65434</v>
       </c>
-      <c r="K192" t="s">
+      <c r="K192" s="1">
+        <v>943910</v>
+      </c>
+      <c r="L192" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>36</v>
       </c>
@@ -7593,11 +7924,14 @@
       <c r="J193" s="1">
         <v>65434</v>
       </c>
-      <c r="K193" t="s">
+      <c r="K193" s="1">
+        <v>943909</v>
+      </c>
+      <c r="L193" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>34</v>
       </c>
@@ -7625,11 +7959,14 @@
       <c r="J194" s="1">
         <v>65434</v>
       </c>
-      <c r="K194" t="s">
+      <c r="K194" s="1">
+        <v>943913</v>
+      </c>
+      <c r="L194" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>29</v>
       </c>
@@ -7657,11 +7994,12 @@
       <c r="J195" s="1">
         <v>3875</v>
       </c>
-      <c r="K195" t="s">
+      <c r="K195" s="1"/>
+      <c r="L195" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>25</v>
       </c>
@@ -7689,8 +8027,9 @@
       <c r="J196" s="1">
         <v>47437</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K196" s="1"/>
+    </row>
+    <row r="197" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>23</v>
       </c>
@@ -7714,11 +8053,12 @@
         <v>0</v>
       </c>
       <c r="J197" s="1"/>
-      <c r="K197" t="s">
+      <c r="K197" s="1"/>
+      <c r="L197" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>20</v>
       </c>
@@ -7740,11 +8080,12 @@
         <v>0</v>
       </c>
       <c r="J198" s="1"/>
-      <c r="K198" t="s">
+      <c r="K198" s="1"/>
+      <c r="L198" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>18</v>
       </c>
@@ -7770,8 +8111,11 @@
       <c r="J199" s="1">
         <v>27473</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K199" s="1">
+        <v>391275</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>16</v>
       </c>
@@ -7795,11 +8139,12 @@
         <v>0</v>
       </c>
       <c r="J200" s="1"/>
-      <c r="K200" t="s">
+      <c r="K200" s="1"/>
+      <c r="L200" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>13</v>
       </c>
@@ -7827,8 +8172,11 @@
       <c r="J201" s="1">
         <v>53428</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K201" s="1">
+        <v>789707</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>12</v>
       </c>
@@ -7856,8 +8204,9 @@
       <c r="J202" s="1">
         <v>21780</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K202" s="1"/>
+    </row>
+    <row r="203" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>10</v>
       </c>
@@ -7885,8 +8234,11 @@
       <c r="J203" s="1">
         <v>15944</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K203" s="1">
+        <v>265536</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>7</v>
       </c>
@@ -7908,11 +8260,12 @@
         <v>0</v>
       </c>
       <c r="J204" s="1"/>
-      <c r="K204" t="s">
+      <c r="K204" s="1"/>
+      <c r="L204" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>4</v>
       </c>
@@ -7938,11 +8291,13 @@
       <c r="J205" s="1">
         <v>49801</v>
       </c>
-      <c r="K205" t="s">
+      <c r="K205" s="1"/>
+      <c r="L205" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>